--- a/biology/Zoologie/Hache_d'argent_diaphane/Hache_d'argent_diaphane.xlsx
+++ b/biology/Zoologie/Hache_d'argent_diaphane/Hache_d'argent_diaphane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hache_d%27argent_diaphane</t>
+          <t>Hache_d'argent_diaphane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sternoptyx diaphana
-La hache d'argent diaphane (Sternoptyx diaphana) est une espèce de poissons abyssaux appartenant à la famille des sternoptychidés vivant entre 400 et 3 676 m de profondeur. Il s'agit sûrement du premier poisson abyssal à avoir été décrit : en 1781 par Hermann [1].
+La hache d'argent diaphane (Sternoptyx diaphana) est une espèce de poissons abyssaux appartenant à la famille des sternoptychidés vivant entre 400 et 3 676 m de profondeur. Il s'agit sûrement du premier poisson abyssal à avoir été décrit : en 1781 par Hermann .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hache_d%27argent_diaphane</t>
+          <t>Hache_d'argent_diaphane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Hache diaphane mesure environ 4 cm de long[2]. La bouche est presque verticale. La nageoire dorsale a de 9 à 12 rayons, et de 13 à 14 rayons sur la nageoire anale. Les photophores sont situés au niveau des branchies, derrière et sous l'œil et sur la face inférieure du poisson. Les nageoires sont transparentes, la partie dorsale est sombre et les flancs sont argentés[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Hache diaphane mesure environ 4 cm de long. La bouche est presque verticale. La nageoire dorsale a de 9 à 12 rayons, et de 13 à 14 rayons sur la nageoire anale. Les photophores sont situés au niveau des branchies, derrière et sous l'œil et sur la face inférieure du poisson. Les nageoires sont transparentes, la partie dorsale est sombre et les flancs sont argentés,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hache_d%27argent_diaphane</t>
+          <t>Hache_d'argent_diaphane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans tous les océans, dans les eaux tropicales ou tempérées. Elle vit entre 300 et 1500 mètres de profondeur, là où la température est comprise entre 4 et 11 °C[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans tous les océans, dans les eaux tropicales ou tempérées. Elle vit entre 300 et 1500 mètres de profondeur, là où la température est comprise entre 4 et 11 °C.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hache_d%27argent_diaphane</t>
+          <t>Hache_d'argent_diaphane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régime alimentaire S. diaphana est composé d'euphausiacés, de petits poissons, de décapodes, de copépodes et d'amphipodes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régime alimentaire S. diaphana est composé d'euphausiacés, de petits poissons, de décapodes, de copépodes et d'amphipodes.
 </t>
         </is>
       </c>
